--- a/Code/Results/Cases/Case_3_137/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_137/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9911109169967013</v>
+        <v>1.046662139649411</v>
       </c>
       <c r="D2">
-        <v>1.012778089884641</v>
+        <v>1.051192063066547</v>
       </c>
       <c r="E2">
-        <v>0.9979165581250453</v>
+        <v>1.044152781200023</v>
       </c>
       <c r="F2">
-        <v>1.013192681112864</v>
+        <v>1.060051279460276</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039215868484291</v>
+        <v>1.037472086088742</v>
       </c>
       <c r="J2">
-        <v>1.01356078904002</v>
+        <v>1.051715340503806</v>
       </c>
       <c r="K2">
-        <v>1.024062230349514</v>
+        <v>1.053944247452335</v>
       </c>
       <c r="L2">
-        <v>1.009404995118119</v>
+        <v>1.046924634100952</v>
       </c>
       <c r="M2">
-        <v>1.024471230375565</v>
+        <v>1.062779112336001</v>
       </c>
       <c r="N2">
-        <v>1.015000161617505</v>
+        <v>1.053208896920757</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9999219030171825</v>
+        <v>1.048359903892235</v>
       </c>
       <c r="D3">
-        <v>1.019722017267928</v>
+        <v>1.052537062258058</v>
       </c>
       <c r="E3">
-        <v>1.005328557003632</v>
+        <v>1.045623329406323</v>
       </c>
       <c r="F3">
-        <v>1.021156610658486</v>
+        <v>1.061635947437379</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04173235666472</v>
+        <v>1.037856112857047</v>
       </c>
       <c r="J3">
-        <v>1.020414697261565</v>
+        <v>1.053057580920572</v>
       </c>
       <c r="K3">
-        <v>1.030108619982134</v>
+        <v>1.055100474332527</v>
       </c>
       <c r="L3">
-        <v>1.015893708953371</v>
+        <v>1.048204641854546</v>
       </c>
       <c r="M3">
-        <v>1.0315257601763</v>
+        <v>1.064176184561826</v>
       </c>
       <c r="N3">
-        <v>1.021863803174878</v>
+        <v>1.054553043472872</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.005427335144444</v>
+        <v>1.049456088952768</v>
       </c>
       <c r="D4">
-        <v>1.024063531655633</v>
+        <v>1.053405036583591</v>
       </c>
       <c r="E4">
-        <v>1.009966191938275</v>
+        <v>1.046572896510557</v>
       </c>
       <c r="F4">
-        <v>1.026140734826846</v>
+        <v>1.062659339017628</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043290755455058</v>
+        <v>1.038102184417826</v>
       </c>
       <c r="J4">
-        <v>1.024693220715394</v>
+        <v>1.053923419167948</v>
       </c>
       <c r="K4">
-        <v>1.033879953198615</v>
+        <v>1.055845768181098</v>
       </c>
       <c r="L4">
-        <v>1.019945803695144</v>
+        <v>1.049030414232298</v>
       </c>
       <c r="M4">
-        <v>1.035933578055042</v>
+        <v>1.065077703238852</v>
       </c>
       <c r="N4">
-        <v>1.026148402622765</v>
+        <v>1.055420111309872</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.007697993066964</v>
+        <v>1.049916367622059</v>
       </c>
       <c r="D5">
-        <v>1.025854630186424</v>
+        <v>1.053769384214792</v>
       </c>
       <c r="E5">
-        <v>1.011880327872468</v>
+        <v>1.046971631473406</v>
       </c>
       <c r="F5">
-        <v>1.028198142850888</v>
+        <v>1.063089105910124</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04393005500294</v>
+        <v>1.038205056967162</v>
       </c>
       <c r="J5">
-        <v>1.026456787251957</v>
+        <v>1.054286785570952</v>
       </c>
       <c r="K5">
-        <v>1.035433677640163</v>
+        <v>1.056158412925948</v>
       </c>
       <c r="L5">
-        <v>1.021616393002994</v>
+        <v>1.049376984873235</v>
       </c>
       <c r="M5">
-        <v>1.037751371701331</v>
+        <v>1.065456117584112</v>
       </c>
       <c r="N5">
-        <v>1.027914473626093</v>
+        <v>1.055783993734848</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.008076759980537</v>
+        <v>1.04999361810956</v>
       </c>
       <c r="D6">
-        <v>1.02615342635214</v>
+        <v>1.053830527866444</v>
       </c>
       <c r="E6">
-        <v>1.012199701913814</v>
+        <v>1.047038553963648</v>
       </c>
       <c r="F6">
-        <v>1.028541436929155</v>
+        <v>1.063161238587257</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04403649099072</v>
+        <v>1.038222296042579</v>
       </c>
       <c r="J6">
-        <v>1.02675090133473</v>
+        <v>1.054347759613149</v>
       </c>
       <c r="K6">
-        <v>1.035692748703795</v>
+        <v>1.056210867910987</v>
       </c>
       <c r="L6">
-        <v>1.021895021491807</v>
+        <v>1.049435141625561</v>
       </c>
       <c r="M6">
-        <v>1.038054583168999</v>
+        <v>1.06551962104653</v>
       </c>
       <c r="N6">
-        <v>1.0282090053846</v>
+        <v>1.055845054367178</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.005457844168913</v>
+        <v>1.049462241392088</v>
       </c>
       <c r="D7">
-        <v>1.024087595495986</v>
+        <v>1.053409907158233</v>
       </c>
       <c r="E7">
-        <v>1.009991905309271</v>
+        <v>1.046578226232288</v>
       </c>
       <c r="F7">
-        <v>1.026168371808854</v>
+        <v>1.062665083403953</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043299358977281</v>
+        <v>1.038103561264313</v>
       </c>
       <c r="J7">
-        <v>1.024716920696004</v>
+        <v>1.053928276957304</v>
       </c>
       <c r="K7">
-        <v>1.033900836334924</v>
+        <v>1.055849948403106</v>
       </c>
       <c r="L7">
-        <v>1.019968252800398</v>
+        <v>1.049035047408388</v>
       </c>
       <c r="M7">
-        <v>1.035958003127972</v>
+        <v>1.065082761911534</v>
       </c>
       <c r="N7">
-        <v>1.026172136260066</v>
+        <v>1.055424975997847</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9941311328266702</v>
+        <v>1.047236407896613</v>
       </c>
       <c r="D8">
-        <v>1.015157645788551</v>
+        <v>1.051647099772026</v>
       </c>
       <c r="E8">
-        <v>1.000455804248877</v>
+        <v>1.044650175015217</v>
       </c>
       <c r="F8">
-        <v>1.015920758576934</v>
+        <v>1.060587244800079</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040081374283155</v>
+        <v>1.037602372679028</v>
       </c>
       <c r="J8">
-        <v>1.015910959073569</v>
+        <v>1.052169518021704</v>
       </c>
       <c r="K8">
-        <v>1.026136138110408</v>
+        <v>1.054335597491024</v>
       </c>
       <c r="L8">
-        <v>1.011629604914146</v>
+        <v>1.047357737423769</v>
       </c>
       <c r="M8">
-        <v>1.026889306515645</v>
+        <v>1.063251778909966</v>
       </c>
       <c r="N8">
-        <v>1.017353669162069</v>
+        <v>1.053663719422826</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9725153254043127</v>
+        <v>1.04329538993329</v>
       </c>
       <c r="D9">
-        <v>0.9981464256601025</v>
+        <v>1.048522554160126</v>
       </c>
       <c r="E9">
-        <v>0.9823162723957434</v>
+        <v>1.041237119167286</v>
       </c>
       <c r="F9">
-        <v>0.9964379687754917</v>
+        <v>1.056910075314856</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03382980876652</v>
+        <v>1.036700536101491</v>
       </c>
       <c r="J9">
-        <v>0.9990774191674449</v>
+        <v>1.049049382400808</v>
       </c>
       <c r="K9">
-        <v>1.011269647570931</v>
+        <v>1.051644815685632</v>
       </c>
       <c r="L9">
-        <v>0.9957029230546682</v>
+        <v>1.044382706903922</v>
       </c>
       <c r="M9">
-        <v>1.009589103030005</v>
+        <v>1.060005917295397</v>
       </c>
       <c r="N9">
-        <v>1.000496223698444</v>
+        <v>1.050539152851464</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.956735713995216</v>
+        <v>1.040654591202623</v>
       </c>
       <c r="D10">
-        <v>0.9857631981455373</v>
+        <v>1.046426676885353</v>
       </c>
       <c r="E10">
-        <v>0.9691264573863154</v>
+        <v>1.038950638720668</v>
       </c>
       <c r="F10">
-        <v>0.9822796975777848</v>
+        <v>1.054447368374028</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029197701031802</v>
+        <v>1.036086544385615</v>
       </c>
       <c r="J10">
-        <v>0.9867776189738768</v>
+        <v>1.046954563741885</v>
       </c>
       <c r="K10">
-        <v>1.000394349807676</v>
+        <v>1.049835431183151</v>
       </c>
       <c r="L10">
-        <v>0.9840764517684207</v>
+        <v>1.042385728030347</v>
       </c>
       <c r="M10">
-        <v>0.9969764420297325</v>
+        <v>1.057828326056706</v>
       </c>
       <c r="N10">
-        <v>0.9881789563777945</v>
+        <v>1.048441359309765</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9495078598904096</v>
+        <v>1.039507725572139</v>
       </c>
       <c r="D11">
-        <v>0.9801031882547525</v>
+        <v>1.045515963035232</v>
       </c>
       <c r="E11">
-        <v>0.9631004150900709</v>
+        <v>1.037957790643228</v>
       </c>
       <c r="F11">
-        <v>0.9758135307100291</v>
+        <v>1.053378168219417</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02706158929817</v>
+        <v>1.03581760386676</v>
       </c>
       <c r="J11">
-        <v>0.9811432261843128</v>
+        <v>1.046043850996945</v>
       </c>
       <c r="K11">
-        <v>0.9954103435982505</v>
+        <v>1.049048144143772</v>
       </c>
       <c r="L11">
-        <v>0.9787534472878079</v>
+        <v>1.041517651484496</v>
       </c>
       <c r="M11">
-        <v>0.9912064516390023</v>
+        <v>1.056882021396028</v>
       </c>
       <c r="N11">
-        <v>0.9825365621041954</v>
+        <v>1.047529353248268</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9467564649724309</v>
+        <v>1.039081204887266</v>
       </c>
       <c r="D12">
-        <v>0.9779508229714376</v>
+        <v>1.045177193632163</v>
       </c>
       <c r="E12">
-        <v>0.9608091650862683</v>
+        <v>1.037588571654229</v>
       </c>
       <c r="F12">
-        <v>0.9733553237619262</v>
+        <v>1.052980581210685</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026246475926024</v>
+        <v>1.035717240811908</v>
       </c>
       <c r="J12">
-        <v>0.9789985610517985</v>
+        <v>1.045705012355853</v>
       </c>
       <c r="K12">
-        <v>0.9935130032452285</v>
+        <v>1.048755127583209</v>
       </c>
       <c r="L12">
-        <v>0.9767277911604663</v>
+        <v>1.041194691297824</v>
       </c>
       <c r="M12">
-        <v>0.9890114381777301</v>
+        <v>1.056529999910944</v>
       </c>
       <c r="N12">
-        <v>0.9803888513011964</v>
+        <v>1.04719003341744</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9473497953960782</v>
+        <v>1.039172718973316</v>
       </c>
       <c r="D13">
-        <v>0.9784148681662996</v>
+        <v>1.045249883161425</v>
       </c>
       <c r="E13">
-        <v>0.9613031411395115</v>
+        <v>1.037667790083482</v>
       </c>
       <c r="F13">
-        <v>0.9738852762119888</v>
+        <v>1.053065885025658</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026422338236418</v>
+        <v>1.035738790207993</v>
       </c>
       <c r="J13">
-        <v>0.97946104102238</v>
+        <v>1.045777719903929</v>
       </c>
       <c r="K13">
-        <v>0.9939221587500876</v>
+        <v>1.048818007185583</v>
       </c>
       <c r="L13">
-        <v>0.9771645853030917</v>
+        <v>1.041263990974427</v>
       </c>
       <c r="M13">
-        <v>0.9894847164372791</v>
+        <v>1.056605533520973</v>
       </c>
       <c r="N13">
-        <v>0.9808519880463834</v>
+        <v>1.047262844218574</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9492818349909913</v>
+        <v>1.03947248001373</v>
       </c>
       <c r="D14">
-        <v>0.9799263261241593</v>
+        <v>1.045487970306225</v>
       </c>
       <c r="E14">
-        <v>0.9629121349539754</v>
+        <v>1.037927279750423</v>
       </c>
       <c r="F14">
-        <v>0.9756115230023539</v>
+        <v>1.053345312573607</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026994667050166</v>
+        <v>1.035809317367308</v>
       </c>
       <c r="J14">
-        <v>0.9809670391254951</v>
+        <v>1.046015853971016</v>
       </c>
       <c r="K14">
-        <v>0.9952544788481561</v>
+        <v>1.049023935259385</v>
       </c>
       <c r="L14">
-        <v>0.9785870269506139</v>
+        <v>1.04149096612608</v>
       </c>
       <c r="M14">
-        <v>0.9910261021243197</v>
+        <v>1.056852933904674</v>
       </c>
       <c r="N14">
-        <v>0.9823601248395456</v>
+        <v>1.047501316463351</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9504631574329631</v>
+        <v>1.039657102816983</v>
       </c>
       <c r="D15">
-        <v>0.9808507904702277</v>
+        <v>1.045634598423087</v>
       </c>
       <c r="E15">
-        <v>0.9638962935673283</v>
+        <v>1.038087102415806</v>
       </c>
       <c r="F15">
-        <v>0.9766674530065141</v>
+        <v>1.053517418615446</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027344358515834</v>
+        <v>1.035852709528272</v>
       </c>
       <c r="J15">
-        <v>0.9818878910274875</v>
+        <v>1.046162501740679</v>
       </c>
       <c r="K15">
-        <v>0.996069105957013</v>
+        <v>1.049150736761179</v>
       </c>
       <c r="L15">
-        <v>0.9794568523424183</v>
+        <v>1.041630744038176</v>
       </c>
       <c r="M15">
-        <v>0.9919687613146682</v>
+        <v>1.057005295941672</v>
       </c>
       <c r="N15">
-        <v>0.9832822844568619</v>
+        <v>1.047648172489667</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9572064839649278</v>
+        <v>1.040730632310183</v>
       </c>
       <c r="D16">
-        <v>0.986132130552472</v>
+        <v>1.046487049903735</v>
       </c>
       <c r="E16">
-        <v>0.9695192959006923</v>
+        <v>1.039016471012997</v>
       </c>
       <c r="F16">
-        <v>0.9827012790571793</v>
+        <v>1.05451826689606</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02933655122634</v>
+        <v>1.036104327879708</v>
       </c>
       <c r="J16">
-        <v>0.9871446107754992</v>
+        <v>1.047014926971839</v>
       </c>
       <c r="K16">
-        <v>1.000718941718132</v>
+        <v>1.049887599635547</v>
       </c>
       <c r="L16">
-        <v>0.9844232253818325</v>
+        <v>1.042443267409667</v>
       </c>
       <c r="M16">
-        <v>0.9973524332503083</v>
+        <v>1.057891056666718</v>
       </c>
       <c r="N16">
-        <v>0.9885464693498697</v>
+        <v>1.04850180826243</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9613258364046388</v>
+        <v>1.041403112508311</v>
       </c>
       <c r="D17">
-        <v>0.9893617785487561</v>
+        <v>1.047020909572387</v>
       </c>
       <c r="E17">
-        <v>0.9729585054321721</v>
+        <v>1.039598684591496</v>
       </c>
       <c r="F17">
-        <v>0.9863923924478317</v>
+        <v>1.055145305278837</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030549933222237</v>
+        <v>1.036261334441165</v>
       </c>
       <c r="J17">
-        <v>0.9903558495698744</v>
+        <v>1.047548647081183</v>
       </c>
       <c r="K17">
-        <v>1.003558941353255</v>
+        <v>1.050348786431298</v>
       </c>
       <c r="L17">
-        <v>0.9874578858425387</v>
+        <v>1.042952031210995</v>
       </c>
       <c r="M17">
-        <v>1.000643294539016</v>
+        <v>1.058445754059332</v>
       </c>
       <c r="N17">
-        <v>0.9917622684716676</v>
+        <v>1.049036286315547</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9636910083319025</v>
+        <v>1.041795033541923</v>
       </c>
       <c r="D18">
-        <v>0.9912172207120746</v>
+        <v>1.047331994325946</v>
       </c>
       <c r="E18">
-        <v>0.9749345935572086</v>
+        <v>1.039938011858279</v>
       </c>
       <c r="F18">
-        <v>0.9885134338305036</v>
+        <v>1.055510773818122</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031245256089458</v>
+        <v>1.036352617006037</v>
       </c>
       <c r="J18">
-        <v>0.9921995584402545</v>
+        <v>1.047859606375244</v>
       </c>
       <c r="K18">
-        <v>1.005189298291844</v>
+        <v>1.050617421833377</v>
       </c>
       <c r="L18">
-        <v>0.9892004852587171</v>
+        <v>1.043248460000999</v>
       </c>
       <c r="M18">
-        <v>1.002533430469536</v>
+        <v>1.058768973078125</v>
       </c>
       <c r="N18">
-        <v>0.9936085956201196</v>
+        <v>1.049347687207474</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9644912983120182</v>
+        <v>1.041928613780098</v>
       </c>
       <c r="D19">
-        <v>0.9918452132189179</v>
+        <v>1.047438014526765</v>
       </c>
       <c r="E19">
-        <v>0.9756034650253607</v>
+        <v>1.040053668589053</v>
       </c>
       <c r="F19">
-        <v>0.98923140495229</v>
+        <v>1.055635343343441</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031480293776158</v>
+        <v>1.036383691799315</v>
       </c>
       <c r="J19">
-        <v>0.9928233877586787</v>
+        <v>1.04796557635338</v>
       </c>
       <c r="K19">
-        <v>1.005740901173276</v>
+        <v>1.050708957619013</v>
       </c>
       <c r="L19">
-        <v>0.9897901486242693</v>
+        <v>1.043349479854646</v>
       </c>
       <c r="M19">
-        <v>1.003173086665114</v>
+        <v>1.058879127377131</v>
       </c>
       <c r="N19">
-        <v>0.9942333108477303</v>
+        <v>1.049453807675134</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9608878042186207</v>
+        <v>1.041330995505901</v>
       </c>
       <c r="D20">
-        <v>0.9890182358822945</v>
+        <v>1.046963663272077</v>
       </c>
       <c r="E20">
-        <v>0.9725926457113107</v>
+        <v>1.039536246400449</v>
       </c>
       <c r="F20">
-        <v>0.9859997127972447</v>
+        <v>1.055078058258167</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030421047633549</v>
+        <v>1.036244519842559</v>
       </c>
       <c r="J20">
-        <v>0.9900143865634969</v>
+        <v>1.047491420318106</v>
       </c>
       <c r="K20">
-        <v>1.003256974634515</v>
+        <v>1.050299343494283</v>
       </c>
       <c r="L20">
-        <v>0.9871351705337057</v>
+        <v>1.042897479319617</v>
       </c>
       <c r="M20">
-        <v>1.000293290153759</v>
+        <v>1.058386274145684</v>
       </c>
       <c r="N20">
-        <v>0.9914203205486545</v>
+        <v>1.048978978283903</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9487148021764427</v>
+        <v>1.039384222441862</v>
       </c>
       <c r="D21">
-        <v>0.9794826656634992</v>
+        <v>1.045417873185691</v>
       </c>
       <c r="E21">
-        <v>0.9624398369464156</v>
+        <v>1.037850878508414</v>
       </c>
       <c r="F21">
-        <v>0.9751047959746926</v>
+        <v>1.053263040334309</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026826747055762</v>
+        <v>1.035788561789782</v>
       </c>
       <c r="J21">
-        <v>0.9805250387130953</v>
+        <v>1.045945744963322</v>
       </c>
       <c r="K21">
-        <v>0.9948634575160977</v>
+        <v>1.048963310755166</v>
       </c>
       <c r="L21">
-        <v>0.9781695362085069</v>
+        <v>1.041424141989821</v>
       </c>
       <c r="M21">
-        <v>0.9905736800645802</v>
+        <v>1.056780095159179</v>
       </c>
       <c r="N21">
-        <v>0.9819174967358618</v>
+        <v>1.047431107892823</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9406709400748025</v>
+        <v>1.038157171008727</v>
       </c>
       <c r="D22">
-        <v>0.9731947891464071</v>
+        <v>1.044443134548553</v>
       </c>
       <c r="E22">
-        <v>0.9557467025651808</v>
+        <v>1.036788720966739</v>
       </c>
       <c r="F22">
-        <v>0.9679247429680821</v>
+        <v>1.052119323155166</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024440205297213</v>
+        <v>1.035499181346791</v>
       </c>
       <c r="J22">
-        <v>0.9742555656162816</v>
+        <v>1.044970675023039</v>
       </c>
       <c r="K22">
-        <v>0.989316644883263</v>
+        <v>1.048119915049697</v>
       </c>
       <c r="L22">
-        <v>0.9722489317556076</v>
+        <v>1.040494794165824</v>
       </c>
       <c r="M22">
-        <v>0.9841595694554348</v>
+        <v>1.055767201673</v>
       </c>
       <c r="N22">
-        <v>0.9756391202681318</v>
+        <v>1.046454653241383</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9449749144717889</v>
+        <v>1.03880794738942</v>
       </c>
       <c r="D23">
-        <v>0.9765578241506137</v>
+        <v>1.044960134821237</v>
       </c>
       <c r="E23">
-        <v>0.959326355791165</v>
+        <v>1.037352031872592</v>
       </c>
       <c r="F23">
-        <v>0.9717645815555712</v>
+        <v>1.052725874735739</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025718154364087</v>
+        <v>1.035652844857958</v>
       </c>
       <c r="J23">
-        <v>0.9776099476725801</v>
+        <v>1.045487889485325</v>
       </c>
       <c r="K23">
-        <v>0.9922844712746992</v>
+        <v>1.048567338868339</v>
       </c>
       <c r="L23">
-        <v>0.9754163747008241</v>
+        <v>1.040987747430226</v>
       </c>
       <c r="M23">
-        <v>0.98759059716779</v>
+        <v>1.056304446448441</v>
       </c>
       <c r="N23">
-        <v>0.9789982659317036</v>
+        <v>1.046972602207531</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9610858476972803</v>
+        <v>1.041363583080064</v>
       </c>
       <c r="D24">
-        <v>0.9891735552735076</v>
+        <v>1.046989531358319</v>
       </c>
       <c r="E24">
-        <v>0.9727580540957719</v>
+        <v>1.039564460359655</v>
       </c>
       <c r="F24">
-        <v>0.9861772460400835</v>
+        <v>1.055108445133715</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030479323719024</v>
+        <v>1.036252118552709</v>
       </c>
       <c r="J24">
-        <v>0.9901687693049512</v>
+        <v>1.047517279712388</v>
       </c>
       <c r="K24">
-        <v>1.003393500910522</v>
+        <v>1.050321685763439</v>
       </c>
       <c r="L24">
-        <v>0.9872810761971024</v>
+        <v>1.042922129973919</v>
       </c>
       <c r="M24">
-        <v>1.000451532426934</v>
+        <v>1.058413151567505</v>
       </c>
       <c r="N24">
-        <v>0.9915749225313097</v>
+        <v>1.049004874401491</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9783238875837276</v>
+        <v>1.044316549440109</v>
       </c>
       <c r="D25">
-        <v>1.002712832328203</v>
+        <v>1.049332545998814</v>
       </c>
       <c r="E25">
-        <v>0.9871828126397308</v>
+        <v>1.042121387351154</v>
       </c>
       <c r="F25">
-        <v>1.001663589580994</v>
+        <v>1.057862647036301</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035521806117621</v>
+        <v>1.036935917328907</v>
       </c>
       <c r="J25">
-        <v>1.003603426639078</v>
+        <v>1.049858562072125</v>
       </c>
       <c r="K25">
-        <v>1.015269180535761</v>
+        <v>1.052343144958264</v>
       </c>
       <c r="L25">
-        <v>0.9999834118658462</v>
+        <v>1.04515418193866</v>
       </c>
       <c r="M25">
-        <v>1.01423613524011</v>
+        <v>1.060847416592365</v>
       </c>
       <c r="N25">
-        <v>1.005028658619827</v>
+        <v>1.051349481650728</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_137/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_137/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.046662139649411</v>
+        <v>0.9911109169967016</v>
       </c>
       <c r="D2">
-        <v>1.051192063066547</v>
+        <v>1.012778089884641</v>
       </c>
       <c r="E2">
-        <v>1.044152781200023</v>
+        <v>0.9979165581250454</v>
       </c>
       <c r="F2">
-        <v>1.060051279460276</v>
+        <v>1.013192681112864</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037472086088742</v>
+        <v>1.039215868484291</v>
       </c>
       <c r="J2">
-        <v>1.051715340503806</v>
+        <v>1.013560789040021</v>
       </c>
       <c r="K2">
-        <v>1.053944247452335</v>
+        <v>1.024062230349514</v>
       </c>
       <c r="L2">
-        <v>1.046924634100952</v>
+        <v>1.009404995118119</v>
       </c>
       <c r="M2">
-        <v>1.062779112336001</v>
+        <v>1.024471230375565</v>
       </c>
       <c r="N2">
-        <v>1.053208896920757</v>
+        <v>1.015000161617505</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.048359903892235</v>
+        <v>0.9999219030171832</v>
       </c>
       <c r="D3">
-        <v>1.052537062258058</v>
+        <v>1.019722017267929</v>
       </c>
       <c r="E3">
-        <v>1.045623329406323</v>
+        <v>1.005328557003632</v>
       </c>
       <c r="F3">
-        <v>1.061635947437379</v>
+        <v>1.021156610658487</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037856112857047</v>
+        <v>1.04173235666472</v>
       </c>
       <c r="J3">
-        <v>1.053057580920572</v>
+        <v>1.020414697261566</v>
       </c>
       <c r="K3">
-        <v>1.055100474332527</v>
+        <v>1.030108619982134</v>
       </c>
       <c r="L3">
-        <v>1.048204641854546</v>
+        <v>1.015893708953371</v>
       </c>
       <c r="M3">
-        <v>1.064176184561826</v>
+        <v>1.031525760176301</v>
       </c>
       <c r="N3">
-        <v>1.054553043472872</v>
+        <v>1.021863803174879</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.049456088952768</v>
+        <v>1.005427335144445</v>
       </c>
       <c r="D4">
-        <v>1.053405036583591</v>
+        <v>1.024063531655634</v>
       </c>
       <c r="E4">
-        <v>1.046572896510557</v>
+        <v>1.009966191938275</v>
       </c>
       <c r="F4">
-        <v>1.062659339017628</v>
+        <v>1.026140734826847</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038102184417826</v>
+        <v>1.043290755455058</v>
       </c>
       <c r="J4">
-        <v>1.053923419167948</v>
+        <v>1.024693220715395</v>
       </c>
       <c r="K4">
-        <v>1.055845768181098</v>
+        <v>1.033879953198616</v>
       </c>
       <c r="L4">
-        <v>1.049030414232298</v>
+        <v>1.019945803695145</v>
       </c>
       <c r="M4">
-        <v>1.065077703238852</v>
+        <v>1.035933578055043</v>
       </c>
       <c r="N4">
-        <v>1.055420111309872</v>
+        <v>1.026148402622766</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.049916367622059</v>
+        <v>1.007697993066966</v>
       </c>
       <c r="D5">
-        <v>1.053769384214792</v>
+        <v>1.025854630186426</v>
       </c>
       <c r="E5">
-        <v>1.046971631473406</v>
+        <v>1.011880327872469</v>
       </c>
       <c r="F5">
-        <v>1.063089105910124</v>
+        <v>1.02819814285089</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038205056967162</v>
+        <v>1.043930055002941</v>
       </c>
       <c r="J5">
-        <v>1.054286785570952</v>
+        <v>1.026456787251958</v>
       </c>
       <c r="K5">
-        <v>1.056158412925948</v>
+        <v>1.035433677640165</v>
       </c>
       <c r="L5">
-        <v>1.049376984873235</v>
+        <v>1.021616393002996</v>
       </c>
       <c r="M5">
-        <v>1.065456117584112</v>
+        <v>1.037751371701334</v>
       </c>
       <c r="N5">
-        <v>1.055783993734848</v>
+        <v>1.027914473626095</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.04999361810956</v>
+        <v>1.008076759980536</v>
       </c>
       <c r="D6">
-        <v>1.053830527866444</v>
+        <v>1.026153426352139</v>
       </c>
       <c r="E6">
-        <v>1.047038553963648</v>
+        <v>1.012199701913814</v>
       </c>
       <c r="F6">
-        <v>1.063161238587257</v>
+        <v>1.028541436929154</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038222296042579</v>
+        <v>1.044036490990719</v>
       </c>
       <c r="J6">
-        <v>1.054347759613149</v>
+        <v>1.02675090133473</v>
       </c>
       <c r="K6">
-        <v>1.056210867910987</v>
+        <v>1.035692748703795</v>
       </c>
       <c r="L6">
-        <v>1.049435141625561</v>
+        <v>1.021895021491806</v>
       </c>
       <c r="M6">
-        <v>1.06551962104653</v>
+        <v>1.038054583168998</v>
       </c>
       <c r="N6">
-        <v>1.055845054367178</v>
+        <v>1.0282090053846</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.049462241392088</v>
+        <v>1.005457844168913</v>
       </c>
       <c r="D7">
-        <v>1.053409907158233</v>
+        <v>1.024087595495986</v>
       </c>
       <c r="E7">
-        <v>1.046578226232288</v>
+        <v>1.009991905309271</v>
       </c>
       <c r="F7">
-        <v>1.062665083403953</v>
+        <v>1.026168371808855</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038103561264313</v>
+        <v>1.043299358977282</v>
       </c>
       <c r="J7">
-        <v>1.053928276957304</v>
+        <v>1.024716920696004</v>
       </c>
       <c r="K7">
-        <v>1.055849948403106</v>
+        <v>1.033900836334925</v>
       </c>
       <c r="L7">
-        <v>1.049035047408388</v>
+        <v>1.019968252800399</v>
       </c>
       <c r="M7">
-        <v>1.065082761911534</v>
+        <v>1.035958003127971</v>
       </c>
       <c r="N7">
-        <v>1.055424975997847</v>
+        <v>1.026172136260066</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.047236407896613</v>
+        <v>0.994131132826669</v>
       </c>
       <c r="D8">
-        <v>1.051647099772026</v>
+        <v>1.01515764578855</v>
       </c>
       <c r="E8">
-        <v>1.044650175015217</v>
+        <v>1.000455804248876</v>
       </c>
       <c r="F8">
-        <v>1.060587244800079</v>
+        <v>1.015920758576933</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037602372679028</v>
+        <v>1.040081374283155</v>
       </c>
       <c r="J8">
-        <v>1.052169518021704</v>
+        <v>1.015910959073567</v>
       </c>
       <c r="K8">
-        <v>1.054335597491024</v>
+        <v>1.026136138110407</v>
       </c>
       <c r="L8">
-        <v>1.047357737423769</v>
+        <v>1.011629604914145</v>
       </c>
       <c r="M8">
-        <v>1.063251778909966</v>
+        <v>1.026889306515644</v>
       </c>
       <c r="N8">
-        <v>1.053663719422826</v>
+        <v>1.017353669162067</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.04329538993329</v>
+        <v>0.9725153254043135</v>
       </c>
       <c r="D9">
-        <v>1.048522554160126</v>
+        <v>0.9981464256601031</v>
       </c>
       <c r="E9">
-        <v>1.041237119167286</v>
+        <v>0.982316272395744</v>
       </c>
       <c r="F9">
-        <v>1.056910075314856</v>
+        <v>0.9964379687754926</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036700536101491</v>
+        <v>1.03382980876652</v>
       </c>
       <c r="J9">
-        <v>1.049049382400808</v>
+        <v>0.9990774191674456</v>
       </c>
       <c r="K9">
-        <v>1.051644815685632</v>
+        <v>1.011269647570931</v>
       </c>
       <c r="L9">
-        <v>1.044382706903922</v>
+        <v>0.9957029230546686</v>
       </c>
       <c r="M9">
-        <v>1.060005917295397</v>
+        <v>1.009589103030006</v>
       </c>
       <c r="N9">
-        <v>1.050539152851464</v>
+        <v>1.000496223698445</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.040654591202623</v>
+        <v>0.9567357139952126</v>
       </c>
       <c r="D10">
-        <v>1.046426676885353</v>
+        <v>0.9857631981455347</v>
       </c>
       <c r="E10">
-        <v>1.038950638720668</v>
+        <v>0.9691264573863123</v>
       </c>
       <c r="F10">
-        <v>1.054447368374028</v>
+        <v>0.9822796975777819</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036086544385615</v>
+        <v>1.029197701031801</v>
       </c>
       <c r="J10">
-        <v>1.046954563741885</v>
+        <v>0.9867776189738737</v>
       </c>
       <c r="K10">
-        <v>1.049835431183151</v>
+        <v>1.000394349807673</v>
       </c>
       <c r="L10">
-        <v>1.042385728030347</v>
+        <v>0.984076451768418</v>
       </c>
       <c r="M10">
-        <v>1.057828326056706</v>
+        <v>0.9969764420297295</v>
       </c>
       <c r="N10">
-        <v>1.048441359309765</v>
+        <v>0.9881789563777915</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.039507725572139</v>
+        <v>0.9495078598904143</v>
       </c>
       <c r="D11">
-        <v>1.045515963035232</v>
+        <v>0.9801031882547562</v>
       </c>
       <c r="E11">
-        <v>1.037957790643228</v>
+        <v>0.9631004150900752</v>
       </c>
       <c r="F11">
-        <v>1.053378168219417</v>
+        <v>0.9758135307100327</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03581760386676</v>
+        <v>1.027061589298172</v>
       </c>
       <c r="J11">
-        <v>1.046043850996945</v>
+        <v>0.9811432261843173</v>
       </c>
       <c r="K11">
-        <v>1.049048144143772</v>
+        <v>0.995410343598254</v>
       </c>
       <c r="L11">
-        <v>1.041517651484496</v>
+        <v>0.9787534472878121</v>
       </c>
       <c r="M11">
-        <v>1.056882021396028</v>
+        <v>0.9912064516390059</v>
       </c>
       <c r="N11">
-        <v>1.047529353248268</v>
+        <v>0.9825365621042002</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.039081204887266</v>
+        <v>0.9467564649724306</v>
       </c>
       <c r="D12">
-        <v>1.045177193632163</v>
+        <v>0.9779508229714376</v>
       </c>
       <c r="E12">
-        <v>1.037588571654229</v>
+        <v>0.960809165086268</v>
       </c>
       <c r="F12">
-        <v>1.052980581210685</v>
+        <v>0.9733553237619269</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035717240811908</v>
+        <v>1.026246475926024</v>
       </c>
       <c r="J12">
-        <v>1.045705012355853</v>
+        <v>0.9789985610517978</v>
       </c>
       <c r="K12">
-        <v>1.048755127583209</v>
+        <v>0.9935130032452286</v>
       </c>
       <c r="L12">
-        <v>1.041194691297824</v>
+        <v>0.9767277911604659</v>
       </c>
       <c r="M12">
-        <v>1.056529999910944</v>
+        <v>0.9890114381777307</v>
       </c>
       <c r="N12">
-        <v>1.04719003341744</v>
+        <v>0.9803888513011961</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.039172718973316</v>
+        <v>0.9473497953960776</v>
       </c>
       <c r="D13">
-        <v>1.045249883161425</v>
+        <v>0.9784148681662994</v>
       </c>
       <c r="E13">
-        <v>1.037667790083482</v>
+        <v>0.9613031411395111</v>
       </c>
       <c r="F13">
-        <v>1.053065885025658</v>
+        <v>0.9738852762119884</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035738790207993</v>
+        <v>1.026422338236417</v>
       </c>
       <c r="J13">
-        <v>1.045777719903929</v>
+        <v>0.9794610410223793</v>
       </c>
       <c r="K13">
-        <v>1.048818007185583</v>
+        <v>0.9939221587500873</v>
       </c>
       <c r="L13">
-        <v>1.041263990974427</v>
+        <v>0.9771645853030911</v>
       </c>
       <c r="M13">
-        <v>1.056605533520973</v>
+        <v>0.9894847164372786</v>
       </c>
       <c r="N13">
-        <v>1.047262844218574</v>
+        <v>0.9808519880463828</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.03947248001373</v>
+        <v>0.9492818349909896</v>
       </c>
       <c r="D14">
-        <v>1.045487970306225</v>
+        <v>0.9799263261241579</v>
       </c>
       <c r="E14">
-        <v>1.037927279750423</v>
+        <v>0.9629121349539737</v>
       </c>
       <c r="F14">
-        <v>1.053345312573607</v>
+        <v>0.9756115230023524</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035809317367308</v>
+        <v>1.026994667050166</v>
       </c>
       <c r="J14">
-        <v>1.046015853971016</v>
+        <v>0.9809670391254935</v>
       </c>
       <c r="K14">
-        <v>1.049023935259385</v>
+        <v>0.9952544788481547</v>
       </c>
       <c r="L14">
-        <v>1.04149096612608</v>
+        <v>0.9785870269506123</v>
       </c>
       <c r="M14">
-        <v>1.056852933904674</v>
+        <v>0.9910261021243184</v>
       </c>
       <c r="N14">
-        <v>1.047501316463351</v>
+        <v>0.9823601248395439</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.039657102816983</v>
+        <v>0.9504631574329634</v>
       </c>
       <c r="D15">
-        <v>1.045634598423087</v>
+        <v>0.9808507904702281</v>
       </c>
       <c r="E15">
-        <v>1.038087102415806</v>
+        <v>0.9638962935673282</v>
       </c>
       <c r="F15">
-        <v>1.053517418615446</v>
+        <v>0.9766674530065141</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035852709528272</v>
+        <v>1.027344358515834</v>
       </c>
       <c r="J15">
-        <v>1.046162501740679</v>
+        <v>0.9818878910274875</v>
       </c>
       <c r="K15">
-        <v>1.049150736761179</v>
+        <v>0.9960691059570133</v>
       </c>
       <c r="L15">
-        <v>1.041630744038176</v>
+        <v>0.9794568523424182</v>
       </c>
       <c r="M15">
-        <v>1.057005295941672</v>
+        <v>0.9919687613146684</v>
       </c>
       <c r="N15">
-        <v>1.047648172489667</v>
+        <v>0.9832822844568621</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.040730632310183</v>
+        <v>0.9572064839649264</v>
       </c>
       <c r="D16">
-        <v>1.046487049903735</v>
+        <v>0.9861321305524706</v>
       </c>
       <c r="E16">
-        <v>1.039016471012997</v>
+        <v>0.969519295900691</v>
       </c>
       <c r="F16">
-        <v>1.05451826689606</v>
+        <v>0.9827012790571777</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036104327879708</v>
+        <v>1.029336551226339</v>
       </c>
       <c r="J16">
-        <v>1.047014926971839</v>
+        <v>0.9871446107754979</v>
       </c>
       <c r="K16">
-        <v>1.049887599635547</v>
+        <v>1.00071894171813</v>
       </c>
       <c r="L16">
-        <v>1.042443267409667</v>
+        <v>0.9844232253818314</v>
       </c>
       <c r="M16">
-        <v>1.057891056666718</v>
+        <v>0.9973524332503069</v>
       </c>
       <c r="N16">
-        <v>1.04850180826243</v>
+        <v>0.9885464693498682</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.041403112508311</v>
+        <v>0.9613258364046369</v>
       </c>
       <c r="D17">
-        <v>1.047020909572387</v>
+        <v>0.9893617785487542</v>
       </c>
       <c r="E17">
-        <v>1.039598684591496</v>
+        <v>0.9729585054321703</v>
       </c>
       <c r="F17">
-        <v>1.055145305278837</v>
+        <v>0.9863923924478296</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036261334441165</v>
+        <v>1.030549933222236</v>
       </c>
       <c r="J17">
-        <v>1.047548647081183</v>
+        <v>0.9903558495698727</v>
       </c>
       <c r="K17">
-        <v>1.050348786431298</v>
+        <v>1.003558941353254</v>
       </c>
       <c r="L17">
-        <v>1.042952031210995</v>
+        <v>0.9874578858425369</v>
       </c>
       <c r="M17">
-        <v>1.058445754059332</v>
+        <v>1.000643294539014</v>
       </c>
       <c r="N17">
-        <v>1.049036286315547</v>
+        <v>0.9917622684716657</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.041795033541923</v>
+        <v>0.9636910083319028</v>
       </c>
       <c r="D18">
-        <v>1.047331994325946</v>
+        <v>0.9912172207120753</v>
       </c>
       <c r="E18">
-        <v>1.039938011858279</v>
+        <v>0.9749345935572088</v>
       </c>
       <c r="F18">
-        <v>1.055510773818122</v>
+        <v>0.9885134338305039</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036352617006037</v>
+        <v>1.031245256089459</v>
       </c>
       <c r="J18">
-        <v>1.047859606375244</v>
+        <v>0.9921995584402548</v>
       </c>
       <c r="K18">
-        <v>1.050617421833377</v>
+        <v>1.005189298291845</v>
       </c>
       <c r="L18">
-        <v>1.043248460000999</v>
+        <v>0.9892004852587171</v>
       </c>
       <c r="M18">
-        <v>1.058768973078125</v>
+        <v>1.002533430469536</v>
       </c>
       <c r="N18">
-        <v>1.049347687207474</v>
+        <v>0.9936085956201199</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.041928613780098</v>
+        <v>0.9644912983120173</v>
       </c>
       <c r="D19">
-        <v>1.047438014526765</v>
+        <v>0.9918452132189176</v>
       </c>
       <c r="E19">
-        <v>1.040053668589053</v>
+        <v>0.9756034650253597</v>
       </c>
       <c r="F19">
-        <v>1.055635343343441</v>
+        <v>0.9892314049522895</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036383691799315</v>
+        <v>1.031480293776158</v>
       </c>
       <c r="J19">
-        <v>1.04796557635338</v>
+        <v>0.992823387758678</v>
       </c>
       <c r="K19">
-        <v>1.050708957619013</v>
+        <v>1.005740901173276</v>
       </c>
       <c r="L19">
-        <v>1.043349479854646</v>
+        <v>0.9897901486242686</v>
       </c>
       <c r="M19">
-        <v>1.058879127377131</v>
+        <v>1.003173086665113</v>
       </c>
       <c r="N19">
-        <v>1.049453807675134</v>
+        <v>0.9942333108477296</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.041330995505901</v>
+        <v>0.9608878042186216</v>
       </c>
       <c r="D20">
-        <v>1.046963663272077</v>
+        <v>0.9890182358822953</v>
       </c>
       <c r="E20">
-        <v>1.039536246400449</v>
+        <v>0.9725926457113117</v>
       </c>
       <c r="F20">
-        <v>1.055078058258167</v>
+        <v>0.9859997127972459</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036244519842559</v>
+        <v>1.030421047633549</v>
       </c>
       <c r="J20">
-        <v>1.047491420318106</v>
+        <v>0.9900143865634978</v>
       </c>
       <c r="K20">
-        <v>1.050299343494283</v>
+        <v>1.003256974634516</v>
       </c>
       <c r="L20">
-        <v>1.042897479319617</v>
+        <v>0.9871351705337068</v>
       </c>
       <c r="M20">
-        <v>1.058386274145684</v>
+        <v>1.00029329015376</v>
       </c>
       <c r="N20">
-        <v>1.048978978283903</v>
+        <v>0.9914203205486555</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.039384222441862</v>
+        <v>0.9487148021764447</v>
       </c>
       <c r="D21">
-        <v>1.045417873185691</v>
+        <v>0.979482665663501</v>
       </c>
       <c r="E21">
-        <v>1.037850878508414</v>
+        <v>0.9624398369464174</v>
       </c>
       <c r="F21">
-        <v>1.053263040334309</v>
+        <v>0.9751047959746946</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035788561789782</v>
+        <v>1.026826747055763</v>
       </c>
       <c r="J21">
-        <v>1.045945744963322</v>
+        <v>0.9805250387130973</v>
       </c>
       <c r="K21">
-        <v>1.048963310755166</v>
+        <v>0.9948634575160995</v>
       </c>
       <c r="L21">
-        <v>1.041424141989821</v>
+        <v>0.9781695362085084</v>
       </c>
       <c r="M21">
-        <v>1.056780095159179</v>
+        <v>0.9905736800645821</v>
       </c>
       <c r="N21">
-        <v>1.047431107892823</v>
+        <v>0.9819174967358637</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.038157171008727</v>
+        <v>0.9406709400748023</v>
       </c>
       <c r="D22">
-        <v>1.044443134548553</v>
+        <v>0.9731947891464066</v>
       </c>
       <c r="E22">
-        <v>1.036788720966739</v>
+        <v>0.9557467025651807</v>
       </c>
       <c r="F22">
-        <v>1.052119323155166</v>
+        <v>0.9679247429680812</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035499181346791</v>
+        <v>1.024440205297213</v>
       </c>
       <c r="J22">
-        <v>1.044970675023039</v>
+        <v>0.9742555656162813</v>
       </c>
       <c r="K22">
-        <v>1.048119915049697</v>
+        <v>0.9893166448832624</v>
       </c>
       <c r="L22">
-        <v>1.040494794165824</v>
+        <v>0.9722489317556074</v>
       </c>
       <c r="M22">
-        <v>1.055767201673</v>
+        <v>0.984159569455434</v>
       </c>
       <c r="N22">
-        <v>1.046454653241383</v>
+        <v>0.9756391202681315</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.03880794738942</v>
+        <v>0.9449749144717885</v>
       </c>
       <c r="D23">
-        <v>1.044960134821237</v>
+        <v>0.9765578241506134</v>
       </c>
       <c r="E23">
-        <v>1.037352031872592</v>
+        <v>0.9593263557911642</v>
       </c>
       <c r="F23">
-        <v>1.052725874735739</v>
+        <v>0.9717645815555707</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035652844857958</v>
+        <v>1.025718154364087</v>
       </c>
       <c r="J23">
-        <v>1.045487889485325</v>
+        <v>0.9776099476725796</v>
       </c>
       <c r="K23">
-        <v>1.048567338868339</v>
+        <v>0.9922844712746989</v>
       </c>
       <c r="L23">
-        <v>1.040987747430226</v>
+        <v>0.9754163747008235</v>
       </c>
       <c r="M23">
-        <v>1.056304446448441</v>
+        <v>0.9875905971677897</v>
       </c>
       <c r="N23">
-        <v>1.046972602207531</v>
+        <v>0.9789982659317029</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.041363583080064</v>
+        <v>0.9610858476972793</v>
       </c>
       <c r="D24">
-        <v>1.046989531358319</v>
+        <v>0.9891735552735069</v>
       </c>
       <c r="E24">
-        <v>1.039564460359655</v>
+        <v>0.9727580540957714</v>
       </c>
       <c r="F24">
-        <v>1.055108445133715</v>
+        <v>0.9861772460400826</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036252118552709</v>
+        <v>1.030479323719024</v>
       </c>
       <c r="J24">
-        <v>1.047517279712388</v>
+        <v>0.9901687693049507</v>
       </c>
       <c r="K24">
-        <v>1.050321685763439</v>
+        <v>1.003393500910521</v>
       </c>
       <c r="L24">
-        <v>1.042922129973919</v>
+        <v>0.987281076197102</v>
       </c>
       <c r="M24">
-        <v>1.058413151567505</v>
+        <v>1.000451532426933</v>
       </c>
       <c r="N24">
-        <v>1.049004874401491</v>
+        <v>0.991574922531309</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.044316549440109</v>
+        <v>0.978323887583728</v>
       </c>
       <c r="D25">
-        <v>1.049332545998814</v>
+        <v>1.002712832328203</v>
       </c>
       <c r="E25">
-        <v>1.042121387351154</v>
+        <v>0.9871828126397312</v>
       </c>
       <c r="F25">
-        <v>1.057862647036301</v>
+        <v>1.001663589580994</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036935917328907</v>
+        <v>1.035521806117621</v>
       </c>
       <c r="J25">
-        <v>1.049858562072125</v>
+        <v>1.003603426639078</v>
       </c>
       <c r="K25">
-        <v>1.052343144958264</v>
+        <v>1.015269180535761</v>
       </c>
       <c r="L25">
-        <v>1.04515418193866</v>
+        <v>0.9999834118658464</v>
       </c>
       <c r="M25">
-        <v>1.060847416592365</v>
+        <v>1.014236135240111</v>
       </c>
       <c r="N25">
-        <v>1.051349481650728</v>
+        <v>1.005028658619827</v>
       </c>
     </row>
   </sheetData>
